--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.0631635049687</v>
+        <v>36.08990733333334</v>
       </c>
       <c r="H2">
-        <v>36.0631635049687</v>
+        <v>108.269722</v>
       </c>
       <c r="I2">
-        <v>0.8107627649631857</v>
+        <v>0.7931472865473056</v>
       </c>
       <c r="J2">
-        <v>0.8107627649631857</v>
+        <v>0.7931472865473055</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.6482353390677</v>
+        <v>34.24745566666667</v>
       </c>
       <c r="N2">
-        <v>32.6482353390677</v>
+        <v>102.742367</v>
       </c>
       <c r="O2">
-        <v>0.8263751285684785</v>
+        <v>0.8258356447932999</v>
       </c>
       <c r="P2">
-        <v>0.8263751285684785</v>
+        <v>0.8258356447932997</v>
       </c>
       <c r="Q2">
-        <v>1177.398649181496</v>
+        <v>1235.987501412442</v>
       </c>
       <c r="R2">
-        <v>1177.398649181496</v>
+        <v>11123.88751271197</v>
       </c>
       <c r="S2">
-        <v>0.6699941841349877</v>
+        <v>0.6550093008018503</v>
       </c>
       <c r="T2">
-        <v>0.6699941841349877</v>
+        <v>0.65500930080185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.0631635049687</v>
+        <v>36.08990733333334</v>
       </c>
       <c r="H3">
-        <v>36.0631635049687</v>
+        <v>108.269722</v>
       </c>
       <c r="I3">
-        <v>0.8107627649631857</v>
+        <v>0.7931472865473056</v>
       </c>
       <c r="J3">
-        <v>0.8107627649631857</v>
+        <v>0.7931472865473055</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.24381040006233</v>
+        <v>1.390336333333333</v>
       </c>
       <c r="N3">
-        <v>1.24381040006233</v>
+        <v>4.171009</v>
       </c>
       <c r="O3">
-        <v>0.0314826810267556</v>
+        <v>0.03352626581937378</v>
       </c>
       <c r="P3">
-        <v>0.0314826810267556</v>
+        <v>0.03352626581937378</v>
       </c>
       <c r="Q3">
-        <v>44.85573782662834</v>
+        <v>50.17710943216644</v>
       </c>
       <c r="R3">
-        <v>44.85573782662834</v>
+        <v>451.593984889498</v>
       </c>
       <c r="S3">
-        <v>0.0255249855177064</v>
+        <v>0.02659126676269999</v>
       </c>
       <c r="T3">
-        <v>0.0255249855177064</v>
+        <v>0.02659126676269999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.0631635049687</v>
+        <v>36.08990733333334</v>
       </c>
       <c r="H4">
-        <v>36.0631635049687</v>
+        <v>108.269722</v>
       </c>
       <c r="I4">
-        <v>0.8107627649631857</v>
+        <v>0.7931472865473056</v>
       </c>
       <c r="J4">
-        <v>0.8107627649631857</v>
+        <v>0.7931472865473055</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.6157204198345</v>
+        <v>0.025246</v>
       </c>
       <c r="N4">
-        <v>5.6157204198345</v>
+        <v>0.075738</v>
       </c>
       <c r="O4">
-        <v>0.1421421904047658</v>
+        <v>0.0006087765144183893</v>
       </c>
       <c r="P4">
-        <v>0.1421421904047658</v>
+        <v>0.0006087765144183892</v>
       </c>
       <c r="Q4">
-        <v>202.520643698683</v>
+        <v>0.9111258005373335</v>
       </c>
       <c r="R4">
-        <v>202.520643698683</v>
+        <v>8.200132204836001</v>
       </c>
       <c r="S4">
-        <v>0.1152435953104915</v>
+        <v>0.0004828494405246721</v>
       </c>
       <c r="T4">
-        <v>0.1152435953104915</v>
+        <v>0.000482849440524672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.498818285195006</v>
+        <v>36.08990733333334</v>
       </c>
       <c r="H5">
-        <v>0.498818285195006</v>
+        <v>108.269722</v>
       </c>
       <c r="I5">
-        <v>0.011214304370807</v>
+        <v>0.7931472865473056</v>
       </c>
       <c r="J5">
-        <v>0.011214304370807</v>
+        <v>0.7931472865473055</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>32.6482353390677</v>
+        <v>0.01070333333333333</v>
       </c>
       <c r="N5">
-        <v>32.6482353390677</v>
+        <v>0.03211</v>
       </c>
       <c r="O5">
-        <v>0.8263751285684785</v>
+        <v>0.0002580978356700003</v>
       </c>
       <c r="P5">
-        <v>0.8263751285684785</v>
+        <v>0.0002580978356700002</v>
       </c>
       <c r="Q5">
-        <v>16.28553676647675</v>
+        <v>0.3862823081577778</v>
       </c>
       <c r="R5">
-        <v>16.28553676647675</v>
+        <v>3.47654077342</v>
       </c>
       <c r="S5">
-        <v>0.009267222216231684</v>
+        <v>0.0002047095980253931</v>
       </c>
       <c r="T5">
-        <v>0.009267222216231684</v>
+        <v>0.000204709598025393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.498818285195006</v>
+        <v>36.08990733333334</v>
       </c>
       <c r="H6">
-        <v>0.498818285195006</v>
+        <v>108.269722</v>
       </c>
       <c r="I6">
-        <v>0.011214304370807</v>
+        <v>0.7931472865473056</v>
       </c>
       <c r="J6">
-        <v>0.011214304370807</v>
+        <v>0.7931472865473055</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.24381040006233</v>
+        <v>5.796320999999999</v>
       </c>
       <c r="N6">
-        <v>1.24381040006233</v>
+        <v>17.388963</v>
       </c>
       <c r="O6">
-        <v>0.0314826810267556</v>
+        <v>0.1397712150372381</v>
       </c>
       <c r="P6">
-        <v>0.0314826810267556</v>
+        <v>0.139771215037238</v>
       </c>
       <c r="Q6">
-        <v>0.6204353708668058</v>
+        <v>209.188687764254</v>
       </c>
       <c r="R6">
-        <v>0.6204353708668058</v>
+        <v>1882.698189878286</v>
       </c>
       <c r="S6">
-        <v>0.000353056367443068</v>
+        <v>0.1108591599442053</v>
       </c>
       <c r="T6">
-        <v>0.000353056367443068</v>
+        <v>0.1108591599442053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.498818285195006</v>
+        <v>0.5065833333333334</v>
       </c>
       <c r="H7">
-        <v>0.498818285195006</v>
+        <v>1.51975</v>
       </c>
       <c r="I7">
-        <v>0.011214304370807</v>
+        <v>0.01113317339754754</v>
       </c>
       <c r="J7">
-        <v>0.011214304370807</v>
+        <v>0.01113317339754754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.6157204198345</v>
+        <v>34.24745566666667</v>
       </c>
       <c r="N7">
-        <v>5.6157204198345</v>
+        <v>102.742367</v>
       </c>
       <c r="O7">
-        <v>0.1421421904047658</v>
+        <v>0.8258356447932999</v>
       </c>
       <c r="P7">
-        <v>0.1421421904047658</v>
+        <v>0.8258356447932997</v>
       </c>
       <c r="Q7">
-        <v>2.801224029956424</v>
+        <v>17.34919024980556</v>
       </c>
       <c r="R7">
-        <v>2.801224029956424</v>
+        <v>156.14271224825</v>
       </c>
       <c r="S7">
-        <v>0.001594025787132246</v>
+        <v>0.009194171431359286</v>
       </c>
       <c r="T7">
-        <v>0.001594025787132246</v>
+        <v>0.009194171431359284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.202457432307619</v>
+        <v>0.5065833333333334</v>
       </c>
       <c r="H8">
-        <v>0.202457432307619</v>
+        <v>1.51975</v>
       </c>
       <c r="I8">
-        <v>0.004551595912611956</v>
+        <v>0.01113317339754754</v>
       </c>
       <c r="J8">
-        <v>0.004551595912611956</v>
+        <v>0.01113317339754754</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.6482353390677</v>
+        <v>1.390336333333333</v>
       </c>
       <c r="N8">
-        <v>32.6482353390677</v>
+        <v>4.171009</v>
       </c>
       <c r="O8">
-        <v>0.8263751285684785</v>
+        <v>0.03352626581937378</v>
       </c>
       <c r="P8">
-        <v>0.8263751285684785</v>
+        <v>0.03352626581937378</v>
       </c>
       <c r="Q8">
-        <v>6.609877896122514</v>
+        <v>0.7043212141944445</v>
       </c>
       <c r="R8">
-        <v>6.609877896122514</v>
+        <v>6.338890927750001</v>
       </c>
       <c r="S8">
-        <v>0.003761325657476466</v>
+        <v>0.0003732537307393595</v>
       </c>
       <c r="T8">
-        <v>0.003761325657476466</v>
+        <v>0.0003732537307393595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.202457432307619</v>
+        <v>0.5065833333333334</v>
       </c>
       <c r="H9">
-        <v>0.202457432307619</v>
+        <v>1.51975</v>
       </c>
       <c r="I9">
-        <v>0.004551595912611956</v>
+        <v>0.01113317339754754</v>
       </c>
       <c r="J9">
-        <v>0.004551595912611956</v>
+        <v>0.01113317339754754</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.24381040006233</v>
+        <v>0.025246</v>
       </c>
       <c r="N9">
-        <v>1.24381040006233</v>
+        <v>0.075738</v>
       </c>
       <c r="O9">
-        <v>0.0314826810267556</v>
+        <v>0.0006087765144183893</v>
       </c>
       <c r="P9">
-        <v>0.0314826810267556</v>
+        <v>0.0006087765144183892</v>
       </c>
       <c r="Q9">
-        <v>0.2518186598741317</v>
+        <v>0.01278920283333334</v>
       </c>
       <c r="R9">
-        <v>0.2518186598741317</v>
+        <v>0.1151028255</v>
       </c>
       <c r="S9">
-        <v>0.0001432964422794468</v>
+        <v>6.777614495374528E-06</v>
       </c>
       <c r="T9">
-        <v>0.0001432964422794468</v>
+        <v>6.777614495374527E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.202457432307619</v>
+        <v>0.5065833333333334</v>
       </c>
       <c r="H10">
-        <v>0.202457432307619</v>
+        <v>1.51975</v>
       </c>
       <c r="I10">
-        <v>0.004551595912611956</v>
+        <v>0.01113317339754754</v>
       </c>
       <c r="J10">
-        <v>0.004551595912611956</v>
+        <v>0.01113317339754754</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>5.6157204198345</v>
+        <v>0.01070333333333333</v>
       </c>
       <c r="N10">
-        <v>5.6157204198345</v>
+        <v>0.03211</v>
       </c>
       <c r="O10">
-        <v>0.1421421904047658</v>
+        <v>0.0002580978356700003</v>
       </c>
       <c r="P10">
-        <v>0.1421421904047658</v>
+        <v>0.0002580978356700002</v>
       </c>
       <c r="Q10">
-        <v>1.136944336757157</v>
+        <v>0.005422130277777779</v>
       </c>
       <c r="R10">
-        <v>1.136944336757157</v>
+        <v>0.0487991725</v>
       </c>
       <c r="S10">
-        <v>0.0006469738128560425</v>
+        <v>2.873447958045844E-06</v>
       </c>
       <c r="T10">
-        <v>0.0006469738128560425</v>
+        <v>2.873447958045843E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.349683289438803</v>
+        <v>0.5065833333333334</v>
       </c>
       <c r="H11">
-        <v>0.349683289438803</v>
+        <v>1.51975</v>
       </c>
       <c r="I11">
-        <v>0.007861489759980831</v>
+        <v>0.01113317339754754</v>
       </c>
       <c r="J11">
-        <v>0.007861489759980831</v>
+        <v>0.01113317339754754</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.6482353390677</v>
+        <v>5.796320999999999</v>
       </c>
       <c r="N11">
-        <v>32.6482353390677</v>
+        <v>17.388963</v>
       </c>
       <c r="O11">
-        <v>0.8263751285684785</v>
+        <v>0.1397712150372381</v>
       </c>
       <c r="P11">
-        <v>0.8263751285684785</v>
+        <v>0.139771215037238</v>
       </c>
       <c r="Q11">
-        <v>11.41654232773737</v>
+        <v>2.93631961325</v>
       </c>
       <c r="R11">
-        <v>11.41654232773737</v>
+        <v>26.42687651925</v>
       </c>
       <c r="S11">
-        <v>0.006496539611143937</v>
+        <v>0.001556097172995475</v>
       </c>
       <c r="T11">
-        <v>0.006496539611143937</v>
+        <v>0.001556097172995475</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.349683289438803</v>
+        <v>0.243179</v>
       </c>
       <c r="H12">
-        <v>0.349683289438803</v>
+        <v>0.7295370000000001</v>
       </c>
       <c r="I12">
-        <v>0.007861489759980831</v>
+        <v>0.0053443407935033</v>
       </c>
       <c r="J12">
-        <v>0.007861489759980831</v>
+        <v>0.0053443407935033</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.24381040006233</v>
+        <v>34.24745566666667</v>
       </c>
       <c r="N12">
-        <v>1.24381040006233</v>
+        <v>102.742367</v>
       </c>
       <c r="O12">
-        <v>0.0314826810267556</v>
+        <v>0.8258356447932999</v>
       </c>
       <c r="P12">
-        <v>0.0314826810267556</v>
+        <v>0.8258356447932997</v>
       </c>
       <c r="Q12">
-        <v>0.4349397121319891</v>
+        <v>8.328262021564335</v>
       </c>
       <c r="R12">
-        <v>0.4349397121319891</v>
+        <v>74.95435819407901</v>
       </c>
       <c r="S12">
-        <v>0.000247500774508582</v>
+        <v>0.004413547125197933</v>
       </c>
       <c r="T12">
-        <v>0.000247500774508582</v>
+        <v>0.004413547125197933</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.349683289438803</v>
+        <v>0.243179</v>
       </c>
       <c r="H13">
-        <v>0.349683289438803</v>
+        <v>0.7295370000000001</v>
       </c>
       <c r="I13">
-        <v>0.007861489759980831</v>
+        <v>0.0053443407935033</v>
       </c>
       <c r="J13">
-        <v>0.007861489759980831</v>
+        <v>0.0053443407935033</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.6157204198345</v>
+        <v>1.390336333333333</v>
       </c>
       <c r="N13">
-        <v>5.6157204198345</v>
+        <v>4.171009</v>
       </c>
       <c r="O13">
-        <v>0.1421421904047658</v>
+        <v>0.03352626581937378</v>
       </c>
       <c r="P13">
-        <v>0.1421421904047658</v>
+        <v>0.03352626581937378</v>
       </c>
       <c r="Q13">
-        <v>1.963723588976384</v>
+        <v>0.3381005992036667</v>
       </c>
       <c r="R13">
-        <v>1.963723588976384</v>
+        <v>3.042905392833</v>
       </c>
       <c r="S13">
-        <v>0.001117449374328312</v>
+        <v>0.0001791757900723146</v>
       </c>
       <c r="T13">
-        <v>0.001117449374328312</v>
+        <v>0.0001791757900723146</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.36641490720312</v>
+        <v>0.243179</v>
       </c>
       <c r="H14">
-        <v>7.36641490720312</v>
+        <v>0.7295370000000001</v>
       </c>
       <c r="I14">
-        <v>0.1656098449934146</v>
+        <v>0.0053443407935033</v>
       </c>
       <c r="J14">
-        <v>0.1656098449934146</v>
+        <v>0.0053443407935033</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>32.6482353390677</v>
+        <v>0.025246</v>
       </c>
       <c r="N14">
-        <v>32.6482353390677</v>
+        <v>0.075738</v>
       </c>
       <c r="O14">
-        <v>0.8263751285684785</v>
+        <v>0.0006087765144183893</v>
       </c>
       <c r="P14">
-        <v>0.8263751285684785</v>
+        <v>0.0006087765144183892</v>
       </c>
       <c r="Q14">
-        <v>240.500447495584</v>
+        <v>0.006139297034000001</v>
       </c>
       <c r="R14">
-        <v>240.500447495584</v>
+        <v>0.05525367330600001</v>
       </c>
       <c r="S14">
-        <v>0.1368558569486387</v>
+        <v>3.253509160132948E-06</v>
       </c>
       <c r="T14">
-        <v>0.1368558569486387</v>
+        <v>3.253509160132947E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.36641490720312</v>
+        <v>0.243179</v>
       </c>
       <c r="H15">
-        <v>7.36641490720312</v>
+        <v>0.7295370000000001</v>
       </c>
       <c r="I15">
-        <v>0.1656098449934146</v>
+        <v>0.0053443407935033</v>
       </c>
       <c r="J15">
-        <v>0.1656098449934146</v>
+        <v>0.0053443407935033</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>1.24381040006233</v>
+        <v>0.01070333333333333</v>
       </c>
       <c r="N15">
-        <v>1.24381040006233</v>
+        <v>0.03211</v>
       </c>
       <c r="O15">
-        <v>0.0314826810267556</v>
+        <v>0.0002580978356700003</v>
       </c>
       <c r="P15">
-        <v>0.0314826810267556</v>
+        <v>0.0002580978356700002</v>
       </c>
       <c r="Q15">
-        <v>9.162423472753424</v>
+        <v>0.002602825896666667</v>
       </c>
       <c r="R15">
-        <v>9.162423472753424</v>
+        <v>0.02342543307</v>
       </c>
       <c r="S15">
-        <v>0.005213841924818109</v>
+        <v>1.379362791886094E-06</v>
       </c>
       <c r="T15">
-        <v>0.005213841924818109</v>
+        <v>1.379362791886093E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.36641490720312</v>
+        <v>0.243179</v>
       </c>
       <c r="H16">
-        <v>7.36641490720312</v>
+        <v>0.7295370000000001</v>
       </c>
       <c r="I16">
-        <v>0.1656098449934146</v>
+        <v>0.0053443407935033</v>
       </c>
       <c r="J16">
-        <v>0.1656098449934146</v>
+        <v>0.0053443407935033</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.6157204198345</v>
+        <v>5.796320999999999</v>
       </c>
       <c r="N16">
-        <v>5.6157204198345</v>
+        <v>17.388963</v>
       </c>
       <c r="O16">
-        <v>0.1421421904047658</v>
+        <v>0.1397712150372381</v>
       </c>
       <c r="P16">
-        <v>0.1421421904047658</v>
+        <v>0.139771215037238</v>
       </c>
       <c r="Q16">
-        <v>41.36772661535382</v>
+        <v>1.409543544459</v>
       </c>
       <c r="R16">
-        <v>41.36772661535382</v>
+        <v>12.685891900131</v>
       </c>
       <c r="S16">
-        <v>0.02354014611995768</v>
+        <v>0.0007469850062810331</v>
       </c>
       <c r="T16">
-        <v>0.02354014611995768</v>
+        <v>0.000746985006281033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4055220000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.216566</v>
+      </c>
+      <c r="I17">
+        <v>0.008912150174410806</v>
+      </c>
+      <c r="J17">
+        <v>0.008912150174410806</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>34.24745566666667</v>
+      </c>
+      <c r="N17">
+        <v>102.742367</v>
+      </c>
+      <c r="O17">
+        <v>0.8258356447932999</v>
+      </c>
+      <c r="P17">
+        <v>0.8258356447932997</v>
+      </c>
+      <c r="Q17">
+        <v>13.888096716858</v>
+      </c>
+      <c r="R17">
+        <v>124.992870451722</v>
+      </c>
+      <c r="S17">
+        <v>0.007359971285779267</v>
+      </c>
+      <c r="T17">
+        <v>0.007359971285779266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4055220000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.216566</v>
+      </c>
+      <c r="I18">
+        <v>0.008912150174410806</v>
+      </c>
+      <c r="J18">
+        <v>0.008912150174410806</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.390336333333333</v>
+      </c>
+      <c r="N18">
+        <v>4.171009</v>
+      </c>
+      <c r="O18">
+        <v>0.03352626581937378</v>
+      </c>
+      <c r="P18">
+        <v>0.03352626581937378</v>
+      </c>
+      <c r="Q18">
+        <v>0.5638119705660001</v>
+      </c>
+      <c r="R18">
+        <v>5.074307735094001</v>
+      </c>
+      <c r="S18">
+        <v>0.000298791115769475</v>
+      </c>
+      <c r="T18">
+        <v>0.000298791115769475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4055220000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.216566</v>
+      </c>
+      <c r="I19">
+        <v>0.008912150174410806</v>
+      </c>
+      <c r="J19">
+        <v>0.008912150174410806</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.025246</v>
+      </c>
+      <c r="N19">
+        <v>0.075738</v>
+      </c>
+      <c r="O19">
+        <v>0.0006087765144183893</v>
+      </c>
+      <c r="P19">
+        <v>0.0006087765144183892</v>
+      </c>
+      <c r="Q19">
+        <v>0.010237808412</v>
+      </c>
+      <c r="R19">
+        <v>0.09214027570800001</v>
+      </c>
+      <c r="S19">
+        <v>5.42550771915105E-06</v>
+      </c>
+      <c r="T19">
+        <v>5.425507719151049E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4055220000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.216566</v>
+      </c>
+      <c r="I20">
+        <v>0.008912150174410806</v>
+      </c>
+      <c r="J20">
+        <v>0.008912150174410806</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01070333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.03211</v>
+      </c>
+      <c r="O20">
+        <v>0.0002580978356700003</v>
+      </c>
+      <c r="P20">
+        <v>0.0002580978356700002</v>
+      </c>
+      <c r="Q20">
+        <v>0.004340437140000001</v>
+      </c>
+      <c r="R20">
+        <v>0.03906393426000001</v>
+      </c>
+      <c r="S20">
+        <v>2.300206671181444E-06</v>
+      </c>
+      <c r="T20">
+        <v>2.300206671181444E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4055220000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.216566</v>
+      </c>
+      <c r="I21">
+        <v>0.008912150174410806</v>
+      </c>
+      <c r="J21">
+        <v>0.008912150174410806</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.796320999999999</v>
+      </c>
+      <c r="N21">
+        <v>17.388963</v>
+      </c>
+      <c r="O21">
+        <v>0.1397712150372381</v>
+      </c>
+      <c r="P21">
+        <v>0.139771215037238</v>
+      </c>
+      <c r="Q21">
+        <v>2.350535684562</v>
+      </c>
+      <c r="R21">
+        <v>21.154821161058</v>
+      </c>
+      <c r="S21">
+        <v>0.001245662058471731</v>
+      </c>
+      <c r="T21">
+        <v>0.001245662058471731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.256959</v>
+      </c>
+      <c r="H22">
+        <v>24.770877</v>
+      </c>
+      <c r="I22">
+        <v>0.1814630490872329</v>
+      </c>
+      <c r="J22">
+        <v>0.1814630490872329</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>34.24745566666667</v>
+      </c>
+      <c r="N22">
+        <v>102.742367</v>
+      </c>
+      <c r="O22">
+        <v>0.8258356447932999</v>
+      </c>
+      <c r="P22">
+        <v>0.8258356447932997</v>
+      </c>
+      <c r="Q22">
+        <v>282.7798372939843</v>
+      </c>
+      <c r="R22">
+        <v>2545.018535645859</v>
+      </c>
+      <c r="S22">
+        <v>0.1498586541491132</v>
+      </c>
+      <c r="T22">
+        <v>0.1498586541491132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.256959</v>
+      </c>
+      <c r="H23">
+        <v>24.770877</v>
+      </c>
+      <c r="I23">
+        <v>0.1814630490872329</v>
+      </c>
+      <c r="J23">
+        <v>0.1814630490872329</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.390336333333333</v>
+      </c>
+      <c r="N23">
+        <v>4.171009</v>
+      </c>
+      <c r="O23">
+        <v>0.03352626581937378</v>
+      </c>
+      <c r="P23">
+        <v>0.03352626581937378</v>
+      </c>
+      <c r="Q23">
+        <v>11.47995010054367</v>
+      </c>
+      <c r="R23">
+        <v>103.319550904893</v>
+      </c>
+      <c r="S23">
+        <v>0.006083778420092642</v>
+      </c>
+      <c r="T23">
+        <v>0.006083778420092642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.256959</v>
+      </c>
+      <c r="H24">
+        <v>24.770877</v>
+      </c>
+      <c r="I24">
+        <v>0.1814630490872329</v>
+      </c>
+      <c r="J24">
+        <v>0.1814630490872329</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.025246</v>
+      </c>
+      <c r="N24">
+        <v>0.075738</v>
+      </c>
+      <c r="O24">
+        <v>0.0006087765144183893</v>
+      </c>
+      <c r="P24">
+        <v>0.0006087765144183892</v>
+      </c>
+      <c r="Q24">
+        <v>0.208455186914</v>
+      </c>
+      <c r="R24">
+        <v>1.876096682226</v>
+      </c>
+      <c r="S24">
+        <v>0.0001104704425190587</v>
+      </c>
+      <c r="T24">
+        <v>0.0001104704425190587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.256959</v>
+      </c>
+      <c r="H25">
+        <v>24.770877</v>
+      </c>
+      <c r="I25">
+        <v>0.1814630490872329</v>
+      </c>
+      <c r="J25">
+        <v>0.1814630490872329</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.01070333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.03211</v>
+      </c>
+      <c r="O25">
+        <v>0.0002580978356700003</v>
+      </c>
+      <c r="P25">
+        <v>0.0002580978356700002</v>
+      </c>
+      <c r="Q25">
+        <v>0.08837698449666667</v>
+      </c>
+      <c r="R25">
+        <v>0.79539286047</v>
+      </c>
+      <c r="S25">
+        <v>4.683522022349383E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.683522022349382E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.256959</v>
+      </c>
+      <c r="H26">
+        <v>24.770877</v>
+      </c>
+      <c r="I26">
+        <v>0.1814630490872329</v>
+      </c>
+      <c r="J26">
+        <v>0.1814630490872329</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.796320999999999</v>
+      </c>
+      <c r="N26">
+        <v>17.388963</v>
+      </c>
+      <c r="O26">
+        <v>0.1397712150372381</v>
+      </c>
+      <c r="P26">
+        <v>0.139771215037238</v>
+      </c>
+      <c r="Q26">
+        <v>47.85998484783899</v>
+      </c>
+      <c r="R26">
+        <v>430.739863630551</v>
+      </c>
+      <c r="S26">
+        <v>0.02536331085528451</v>
+      </c>
+      <c r="T26">
+        <v>0.02536331085528451</v>
       </c>
     </row>
   </sheetData>
